--- a/Danh_sach_co_dong_mau.xlsx
+++ b/Danh_sach_co_dong_mau.xlsx
@@ -1,46 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\bedhcd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BBE7A2-6703-4D47-95D8-9789C0579370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3615" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>CCCD (BAT BUOC)</t>
+  </si>
+  <si>
+    <t>Ho va ten (BAT BUOC)</t>
+  </si>
+  <si>
+    <t>Ma co dong</t>
+  </si>
+  <si>
+    <t>So co phan (BAT BUOC)</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>So dien thoai</t>
+  </si>
+  <si>
+    <t>Dia chi</t>
+  </si>
+  <si>
+    <t>Ngay cap</t>
+  </si>
+  <si>
+    <t>Noi cap</t>
+  </si>
+  <si>
+    <t>Quoc tich</t>
+  </si>
+  <si>
+    <t>Mat khau (MK)</t>
+  </si>
+  <si>
+    <t>001090001234</t>
+  </si>
+  <si>
+    <t>Nguyen Van A</t>
+  </si>
+  <si>
+    <t>SH001</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>CA Ha Noi</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>001090005678</t>
+  </si>
+  <si>
+    <t>Tran Thi B</t>
+  </si>
+  <si>
+    <t>SH002</t>
+  </si>
+  <si>
+    <t>b@gmail.com</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>TP.HCM</t>
+  </si>
+  <si>
+    <t>CA TP.HCM</t>
+  </si>
+  <si>
+    <t>001090009012</t>
+  </si>
+  <si>
+    <t>Le Van C</t>
+  </si>
+  <si>
+    <t>SH003</t>
+  </si>
+  <si>
+    <t>c@gmail.com</t>
+  </si>
+  <si>
+    <t>0901122334</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>CA Da Nang</t>
+  </si>
+  <si>
+    <t>pass123</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BCBCBC"/>
-        <bgColor rgb="00BCBCBC"/>
+        <fgColor rgb="FFBCBCBC"/>
+        <bgColor rgb="FFBCBCBC"/>
       </patternFill>
     </fill>
     <fill>
@@ -59,83 +178,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,249 +484,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>CCCD (BAT BUOC)</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Ho va ten (BAT BUOC)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ma co dong</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>So co phan (BAT BUOC)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>So dien thoai</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Dia chi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Ngay cap</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Noi cap</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Quoc tich</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Mat khau (MK)</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001090001234</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Nguyen Van A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SH001</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
         <v>1000</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>a@gmail.com</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0912345678</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Ha Noi</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2015-01-01</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CA Ha Noi</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Viet Nam</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001090005678</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tran Thi B</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SH002</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
         <v>500</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>b@gmail.com</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0987654321</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TP.HCM</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2016-02-02</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CA TP.HCM</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Viet Nam</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42402</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001090009012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Le Van C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SH003</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
         <v>2000</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>c@gmail.com</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0901122334</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Da Nang</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2017-03-03</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CA Da Nang</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Viet Nam</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>pass123</t>
-        </is>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3">
+        <v>42797</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Danh_sach_co_dong_mau.xlsx
+++ b/Danh_sach_co_dong_mau.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\bedhcd\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BBE7A2-6703-4D47-95D8-9789C0579370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="2430" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -133,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,22 +478,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -575,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -610,7 +605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>

--- a/Danh_sach_co_dong_mau.xlsx
+++ b/Danh_sach_co_dong_mau.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\project_dhcd\bedhcd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D54BB-71C4-4DA9-A7BD-A13096E196AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="2430" windowWidth="21600" windowHeight="11390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -122,12 +133,15 @@
   </si>
   <si>
     <t>pass123</t>
+  </si>
+  <si>
+    <t>SH004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,23 +492,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -570,7 +584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -605,7 +619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -641,6 +655,35 @@
       </c>
       <c r="L4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3">
+        <v>42040</v>
       </c>
     </row>
   </sheetData>
